--- a/data/trans_camb/P16B04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Clase-trans_camb.xlsx
@@ -639,17 +639,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-75,44; 8,5</t>
+          <t>-79,51; 8,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 34,31</t>
+          <t>-17,82; 31,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 0,0</t>
+          <t>-56,52; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,71; 7,12</t>
+          <t>-51,48; 7,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 14,85</t>
+          <t>-36,6; 14,51</t>
         </is>
       </c>
     </row>
@@ -715,17 +715,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 10,38</t>
+          <t>-80,65; 10,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 53,03</t>
+          <t>-18,29; 47,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,22; 0,0</t>
+          <t>-56,52; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,53; 4,56</t>
+          <t>-54,44; 7,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,32; 17,18</t>
+          <t>-39,08; 16,86</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 0,0</t>
+          <t>-60,89; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 0,0</t>
+          <t>-38,06; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,9; 0,0</t>
+          <t>-60,89; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 0,0</t>
+          <t>-38,06; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 22,51</t>
+          <t>-27,44; 21,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,92</t>
+          <t>0,0; 47,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 0,0</t>
+          <t>-57,94; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 10,72</t>
+          <t>-22,49; 8,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 11,84</t>
+          <t>-20,57; 11,85</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,28; 32,01</t>
+          <t>-29,48; 28,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,71</t>
+          <t>0,0; 89,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-58,45; 0,0</t>
+          <t>-57,94; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 12,56</t>
+          <t>-22,94; 10,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 13,5</t>
+          <t>-20,97; 13,53</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 4,31</t>
+          <t>-21,6; 4,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 7,37</t>
+          <t>-12,58; 7,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,23</t>
+          <t>0,0; 27,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,31</t>
+          <t>0,0; 23,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 7,72</t>
+          <t>-8,26; 7,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 10,22</t>
+          <t>-4,03; 11,49</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 4,15</t>
+          <t>-22,79; 4,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 8,02</t>
+          <t>-12,67; 7,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,42</t>
+          <t>0,0; 37,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,44</t>
+          <t>0,0; 30,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 8,56</t>
+          <t>-8,35; 8,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 12,06</t>
+          <t>-4,02; 13,22</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 0,0</t>
+          <t>-22,67; 0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 15,83</t>
+          <t>-39,66; 15,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 28,41</t>
+          <t>-12,42; 25,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 9,01</t>
+          <t>-19,58; 7,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 17,24</t>
+          <t>-7,08; 14,43</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 0,0</t>
+          <t>-22,67; 0,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,09; 18,75</t>
+          <t>-39,93; 18,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 40,92</t>
+          <t>-12,47; 34,91</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 9,85</t>
+          <t>-20,72; 8,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 20,8</t>
+          <t>-7,09; 16,43</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 18,13</t>
+          <t>-13,65; 17,9</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,54</t>
+          <t>0,0; 30,68</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 16,11</t>
+          <t>-12,76; 16,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 17,08</t>
+          <t>-10,2; 18,67</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 22,12</t>
+          <t>-13,71; 21,79</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,77</t>
+          <t>0,0; 44,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 19,31</t>
+          <t>-12,79; 19,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 20,57</t>
+          <t>-10,43; 22,52</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>-19,8; -1,8</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>-8,06; 6,24</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>-6,42; 9,14</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,29</t>
+          <t>-8,8; 6,66</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>-10,66; 0,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,75</t>
+          <t>-5,92; 5,31</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,86</t>
+          <t>-20,51; -2,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,5</t>
+          <t>-8,22; 6,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,04</t>
+          <t>-6,57; 10,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 9,19</t>
+          <t>-9,05; 7,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,73</t>
+          <t>-10,89; 0,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,04</t>
+          <t>-6,04; 5,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
